--- a/data-statis/chapter1/Shadow02.xlsx
+++ b/data-statis/chapter1/Shadow02.xlsx
@@ -1,17 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="15456" windowHeight="11376"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="15450" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
@@ -37,9 +34,6 @@
     <t>Price/Earnings Ratio</t>
   </si>
   <si>
-    <t>Gross Profit Margin (%)</t>
-  </si>
-  <si>
     <t>DeWolfe Companies</t>
   </si>
   <si>
@@ -197,16 +191,20 @@
   </si>
   <si>
     <t>YORW</t>
+  </si>
+  <si>
+    <t>GPM</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -252,32 +250,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Shad2000 NEW list for Jrnl"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -385,6 +376,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,23 +552,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,18 +587,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>36.4</v>
@@ -616,15 +610,15 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>52.5</v>
@@ -636,15 +630,15 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>41.1</v>
@@ -656,15 +650,15 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>111.5</v>
@@ -676,15 +670,15 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>228.6</v>
@@ -696,15 +690,15 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>92.1</v>
@@ -716,15 +710,15 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>51.1</v>
@@ -736,15 +730,15 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="4">
         <v>101.8</v>
@@ -756,15 +750,15 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="3">
         <v>193.4</v>
@@ -776,15 +770,15 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>97.2</v>
@@ -796,15 +790,15 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="4">
         <v>136.5</v>
@@ -816,15 +810,15 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="4">
         <v>23.2</v>
@@ -836,15 +830,15 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="4">
         <v>173.4</v>
@@ -856,15 +850,15 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="4">
         <v>64.3</v>
@@ -876,15 +870,15 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D16" s="4">
         <v>29.1</v>
@@ -896,15 +890,15 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="4">
         <v>27.3</v>
@@ -916,15 +910,15 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="4">
         <v>66.099999999999994</v>
@@ -936,15 +930,15 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="4">
         <v>137.1</v>
@@ -956,15 +950,15 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D20" s="4">
         <v>240.9</v>
@@ -976,15 +970,15 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="4">
         <v>95.9</v>
@@ -996,15 +990,15 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D22" s="4">
         <v>233.6</v>
@@ -1016,15 +1010,15 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D23" s="4">
         <v>126.9</v>
@@ -1036,15 +1030,15 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D24" s="4">
         <v>295.5</v>
@@ -1056,15 +1050,15 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D25" s="4">
         <v>62.8</v>
@@ -1076,15 +1070,15 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D26" s="4">
         <v>92.2</v>
@@ -1096,7 +1090,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="5"/>
     </row>
   </sheetData>
